--- a/biology/Zoologie/Astrolirus/Astrolirus.xlsx
+++ b/biology/Zoologie/Astrolirus/Astrolirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrolirus est un genre d'étoiles de mer complexes de la famille des Brisingidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Astrolirus a été créé en 1917 par le zoologiste américain Walter Kenrick Fisher (1878–1953)[1],[2] avec pour espèce type Brisinga panamensis Ludwig, 1905, rebaptisée Astrolirus panamensis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Astrolirus a été créé en 1917 par le zoologiste américain Walter Kenrick Fisher (1878–1953), avec pour espèce type Brisinga panamensis Ludwig, 1905, rebaptisée Astrolirus panamensis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (3 juin 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (3 juin 2022) :
 Astrolirus panamensis (Ludwig, 1905) -- Pacifique est - espèce type
 Astrolirus patricki Zhang &amp; al., 2020 -- Pacifique ouest
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Walter K. Fisher, « New genera and species of Brisingidae », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 20, no 120,‎ décembre 1917, p. 418-431 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222931709487030, lire en ligne)</t>
         </is>
